--- a/Term Project/Datasets/auto-fatalities.xlsx
+++ b/Term Project/Datasets/auto-fatalities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anirban\Desktop\Masters\MSDSC\DSC640\Final Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Bellevue University\Course\github\dsc640\Term Project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114CC547-274C-4C04-89AC-C2C7D73904B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AE735-0C35-409B-8F69-4E70B4316CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{DB7496C0-C7F1-45E0-8824-371169AB65B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB7496C0-C7F1-45E0-8824-371169AB65B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -431,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC6A9C-0FAF-41A3-B04B-80AE25BC10B3}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
